--- a/data/General Table for Screening/Past_HPVnegative_cotest with genotyping.xlsx
+++ b/data/General Table for Screening/Past_HPVnegative_cotest with genotyping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egemend2/Documents/Documents/Enduring Guidelines/Web Tool/new tables for the tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/druss/Downloads/new tables for the tool/General Table for Screening/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D1381-96BC-BA4B-BA2A-E0DD4E39317E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EA3AA9-8291-E64D-A1D3-55A1978CE983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34280" yWindow="-5680" windowWidth="28800" windowHeight="15620" xr2:uid="{1AC904FE-15A2-F44F-ADC1-49B15ABE3154}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{1AC904FE-15A2-F44F-ADC1-49B15ABE3154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>PAST HISTORY (most recent)</t>
   </si>
@@ -68,75 +68,21 @@
     <t>CIN2+ Immediate risk (%)</t>
   </si>
   <si>
-    <t>SE immediate</t>
-  </si>
-  <si>
-    <t>LL95 immediate</t>
-  </si>
-  <si>
-    <t>UL95 immediate</t>
-  </si>
-  <si>
     <t>CIN2+ 1 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 1-year</t>
-  </si>
-  <si>
-    <t>LL95 1-year</t>
-  </si>
-  <si>
-    <t>UL95 1-year</t>
-  </si>
-  <si>
     <t>CIN2+ 2 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 2-year</t>
-  </si>
-  <si>
-    <t>LL95 2-year</t>
-  </si>
-  <si>
-    <t>UL95 2-year</t>
-  </si>
-  <si>
     <t>CIN2+ 3 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 3-year</t>
-  </si>
-  <si>
-    <t>LL95 3-year</t>
-  </si>
-  <si>
-    <t>UL95 3-year</t>
-  </si>
-  <si>
     <t>CIN2+ 4 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 4-year</t>
-  </si>
-  <si>
-    <t>LL95 4-year</t>
-  </si>
-  <si>
-    <t>UL95 4-year</t>
-  </si>
-  <si>
     <t>CIN2+ 5 year risk  (%)</t>
   </si>
   <si>
-    <t>SE 5-year</t>
-  </si>
-  <si>
-    <t>LL95 5-year</t>
-  </si>
-  <si>
-    <t>UL95 5-year</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -236,12 +182,6 @@
     <t>Unweighted Number of CIN2+ Cases</t>
   </si>
   <si>
-    <t>UnweightedNumber of CIN3+ Cases</t>
-  </si>
-  <si>
-    <t>UnweightedNumber of Cancer Cases</t>
-  </si>
-  <si>
     <t>HPV16+</t>
   </si>
   <si>
@@ -261,6 +201,204 @@
   </si>
   <si>
     <t>HPV16/18-, Other+</t>
+  </si>
+  <si>
+    <t>CIN2+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN2+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN2+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 immediate</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 1-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 2-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 3-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 4-year</t>
+  </si>
+  <si>
+    <t>CIN3+ SE 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ LL95 5-year</t>
+  </si>
+  <si>
+    <t>CIN3+ UL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER SE immediate</t>
+  </si>
+  <si>
+    <t>CANCER LL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER UL95 immediate</t>
+  </si>
+  <si>
+    <t>CANCER SE 1-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 1-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 2-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 2-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 3-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 3-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 4-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 4-year</t>
+  </si>
+  <si>
+    <t>CANCER SE 5-year</t>
+  </si>
+  <si>
+    <t>CANCER LL95 5-year</t>
+  </si>
+  <si>
+    <t>CANCER UL95 5-year</t>
+  </si>
+  <si>
+    <t>Unweighted %</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN2+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of CIN3+ Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted CIN3+ Unknown Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Number of Cancer Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Prevalence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Incidence Cases</t>
+  </si>
+  <si>
+    <t>Unweighted Cancer Unknown Cases</t>
   </si>
 </sst>
 </file>
@@ -745,10 +883,10 @@
   <dimension ref="A1:DD13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="CY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>5</v>
@@ -805,318 +943,318 @@
         <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="U1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AS1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="BI1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BT1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BU1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AS1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AV1" s="5" t="s">
+      <c r="CC1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="CG1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="CJ1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BD1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="BE1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BH1" s="4" t="s">
+      <c r="CO1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL1" s="5" t="s">
+      <c r="CP1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BM1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="BQ1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BT1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="BV1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BY1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="CA1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="CB1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="CD1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="CE1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="CF1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="CG1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="CH1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="CK1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="CL1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CO1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="CP1" s="26" t="s">
-        <v>57</v>
-      </c>
       <c r="CQ1" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="CR1" s="2" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="CS1" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="CT1" s="9" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="CU1" s="9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="CV1" s="9" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="CX1" s="9" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="CY1" s="9" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="CZ1" s="9" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="DB1" s="9" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="DC1" s="9" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="DD1" s="9" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E2" s="13">
         <v>810.35425299999997</v>
@@ -1291,13 +1429,13 @@
         <v>2.3103670663142201E-8</v>
       </c>
       <c r="BQ2" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BR2" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BS2" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BT2" s="13">
         <v>0.41314603161806202</v>
@@ -1360,10 +1498,10 @@
         <v>1.8256783358417501</v>
       </c>
       <c r="CN2" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO2" s="14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="CP2" s="11"/>
       <c r="CQ2" s="12">
@@ -1411,16 +1549,16 @@
     </row>
     <row r="3" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E3" s="13">
         <v>395.28498000000002</v>
@@ -1664,7 +1802,7 @@
         <v>2.5189394879189302</v>
       </c>
       <c r="CN3" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO3" s="13">
         <v>0.83717126312871426</v>
@@ -1718,16 +1856,16 @@
     </row>
     <row r="4" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E4" s="13">
         <v>286.84307200000001</v>
@@ -1971,7 +2109,7 @@
         <v>2.1354424514187502</v>
       </c>
       <c r="CN4" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO4" s="13">
         <v>0.93896107395294692</v>
@@ -2025,16 +2163,16 @@
     </row>
     <row r="5" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E5" s="13">
         <v>116.086282</v>
@@ -2278,7 +2416,7 @@
         <v>7.9309150273924098</v>
       </c>
       <c r="CN5" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO5" s="13">
         <v>0.60578258262099516</v>
@@ -2332,16 +2470,16 @@
     </row>
     <row r="6" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E6" s="13">
         <v>332.60266899999999</v>
@@ -2516,13 +2654,13 @@
         <v>7.2840459609418496E-13</v>
       </c>
       <c r="BQ6" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BR6" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BS6" s="13" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BT6" s="13">
         <v>0.38811251467805602</v>
@@ -2585,10 +2723,10 @@
         <v>1.3139797750042099</v>
       </c>
       <c r="CN6" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO6" s="14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="CP6" s="11"/>
       <c r="CQ6" s="12">
@@ -2636,16 +2774,16 @@
     </row>
     <row r="7" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13">
         <v>158.71339800000001</v>
@@ -2889,10 +3027,10 @@
         <v>5.3619095690554399</v>
       </c>
       <c r="CN7" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO7" s="14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="CP7" s="11"/>
       <c r="CQ7" s="12">
@@ -2940,16 +3078,16 @@
     </row>
     <row r="8" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13">
         <v>76.201643000000004</v>
@@ -3193,10 +3331,10 @@
         <v>5.3436454603283403E-8</v>
       </c>
       <c r="CN8" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO8" s="14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="CP8" s="11"/>
       <c r="CQ8" s="12">
@@ -3244,16 +3382,16 @@
     </row>
     <row r="9" spans="1:108" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E9" s="13">
         <v>59.459530000000001</v>
@@ -3497,7 +3635,7 @@
         <v>10.127616923894101</v>
       </c>
       <c r="CN9" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO9" s="13">
         <v>0.80599859942658636</v>
@@ -3551,16 +3689,16 @@
     </row>
     <row r="10" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13">
         <v>248.27012099999999</v>
@@ -3804,7 +3942,7 @@
         <v>2.5066842488593801</v>
       </c>
       <c r="CN10" s="17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="CO10" s="13">
         <v>0.99505620707530251</v>
@@ -3858,16 +3996,16 @@
     </row>
     <row r="11" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E11" s="13">
         <v>754.41720999999995</v>
@@ -4111,7 +4249,7 @@
         <v>2.7780223827874001E-6</v>
       </c>
       <c r="CN11" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="CO11" s="13">
         <v>0.99794651462135264</v>
@@ -4165,16 +4303,16 @@
     </row>
     <row r="12" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13">
         <v>1412.3456000000001</v>
@@ -4418,7 +4556,7 @@
         <v>8.0275902809096297E-7</v>
       </c>
       <c r="CN12" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="CO12" s="13">
         <v>0.99984129153052126</v>
@@ -4472,16 +4610,16 @@
     </row>
     <row r="13" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E13" s="13">
         <v>2911.3762190000002</v>
@@ -4725,7 +4863,7 @@
         <v>0.139827212219927</v>
       </c>
       <c r="CN13" s="16" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="CO13" s="13">
         <v>0.99997947259169317</v>
